--- a/master spreadsheet.xlsx
+++ b/master spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parke\git\03-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53767375-33E3-4695-B2D5-5E4153F6DC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80536EEC-C724-48BE-9503-CFECC726C607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0B16AB0F-25E1-4936-BA8B-ADD0778BED11}"/>
+    <workbookView xWindow="9378" yWindow="600" windowWidth="11454" windowHeight="8760" xr2:uid="{0B16AB0F-25E1-4936-BA8B-ADD0778BED11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E6B108-B0A5-43B8-A533-C39928310100}">
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -543,8 +543,8 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f>AVERAGE(D2:D181)</f>
-        <v>1.3183358763412014</v>
+        <f>AVERAGE(D2:D201)</f>
+        <v>1.3674493543927915</v>
       </c>
       <c r="B4">
         <v>80</v>
@@ -557,8 +557,8 @@
         <v>1.757370626771132</v>
       </c>
       <c r="F4">
-        <f>AVERAGE(I2:I181)</f>
-        <v>2.3097528297679122</v>
+        <f>AVERAGE(I2:I201)</f>
+        <v>2.2766671831086494</v>
       </c>
       <c r="G4">
         <v>75</v>
@@ -571,8 +571,8 @@
         <v>1.7004397181410922</v>
       </c>
       <c r="K4">
-        <f>AVERAGE(N2:N181)</f>
-        <v>2.4915027547302997</v>
+        <f>AVERAGE(N2:N201)</f>
+        <v>2.5322464254822528</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -4625,7 +4625,7 @@
         <v>80</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D181" si="6">LOG(ABS(B131-C131) + (1/8), 2)</f>
+        <f t="shared" ref="D131:D194" si="6">LOG(ABS(B131-C131) + (1/8), 2)</f>
         <v>1.0874628412503395</v>
       </c>
       <c r="G131">
@@ -4635,7 +4635,7 @@
         <v>17.7215189873417</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I181" si="7">LOG(ABS(G131-H131) + (1/8), 2)</f>
+        <f t="shared" ref="I131:I194" si="7">LOG(ABS(G131-H131) + (1/8), 2)</f>
         <v>2.9720527618363541</v>
       </c>
       <c r="L131">
@@ -4645,7 +4645,7 @@
         <v>12.676056338028101</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N181" si="8">LOG(ABS(L131-M131) + (1/8), 2)</f>
+        <f t="shared" ref="N131:N194" si="8">LOG(ABS(L131-M131) + (1/8), 2)</f>
         <v>1.2921595850375973</v>
       </c>
     </row>
@@ -6247,6 +6247,640 @@
       <c r="N181">
         <f t="shared" si="8"/>
         <v>-1.0396490766530024</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B182">
+        <v>69</v>
+      </c>
+      <c r="C182">
+        <v>24.6376811594202</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="6"/>
+        <v>5.4753222477512962</v>
+      </c>
+      <c r="G182">
+        <v>98</v>
+      </c>
+      <c r="H182">
+        <v>99</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="7"/>
+        <v>0.16992500144231237</v>
+      </c>
+      <c r="L182">
+        <v>10</v>
+      </c>
+      <c r="M182">
+        <v>14.0350877192982</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="8"/>
+        <v>2.0566139492467186</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B183">
+        <v>20</v>
+      </c>
+      <c r="C183">
+        <v>83.561643835616394</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="6"/>
+        <v>5.9929189415842572</v>
+      </c>
+      <c r="G183">
+        <v>90</v>
+      </c>
+      <c r="H183">
+        <v>90.425531914893597</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="7"/>
+        <v>-0.86110189417836525</v>
+      </c>
+      <c r="L183">
+        <v>80</v>
+      </c>
+      <c r="M183">
+        <v>84.523809523809504</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="8"/>
+        <v>2.2168613153632131</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B184">
+        <v>50</v>
+      </c>
+      <c r="C184">
+        <v>50</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="G184">
+        <v>5</v>
+      </c>
+      <c r="H184">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="7"/>
+        <v>1.4563055176505781</v>
+      </c>
+      <c r="L184">
+        <v>10</v>
+      </c>
+      <c r="M184">
+        <v>4.10958904109589</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="8"/>
+        <v>2.5886633023423542</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B185">
+        <v>80</v>
+      </c>
+      <c r="C185">
+        <v>80</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="G185">
+        <v>80</v>
+      </c>
+      <c r="H185">
+        <v>69.565217391304301</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="7"/>
+        <v>3.400508229528338</v>
+      </c>
+      <c r="L185">
+        <v>40</v>
+      </c>
+      <c r="M185">
+        <v>13.698630136986299</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="8"/>
+        <v>4.7239063533771795</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B186">
+        <v>45</v>
+      </c>
+      <c r="C186">
+        <v>44.8979591836734</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="6"/>
+        <v>-2.1389764131483711</v>
+      </c>
+      <c r="G186">
+        <v>75</v>
+      </c>
+      <c r="H186">
+        <v>68.253968253968196</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="7"/>
+        <v>2.7805267486973242</v>
+      </c>
+      <c r="L186">
+        <v>30</v>
+      </c>
+      <c r="M186">
+        <v>37.804878048780402</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="8"/>
+        <v>2.9872986793248923</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B187">
+        <v>65</v>
+      </c>
+      <c r="C187">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="6"/>
+        <v>0.84130225398088831</v>
+      </c>
+      <c r="G187">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <v>3.27868852459016</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="7"/>
+        <v>0.88464595825065528</v>
+      </c>
+      <c r="L187">
+        <v>60</v>
+      </c>
+      <c r="M187">
+        <v>29.1666666666666</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="8"/>
+        <v>4.9522558998174429</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B188">
+        <v>80</v>
+      </c>
+      <c r="C188">
+        <v>81.967213114754102</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="6"/>
+        <v>1.0650298133149181</v>
+      </c>
+      <c r="G188">
+        <v>10</v>
+      </c>
+      <c r="H188">
+        <v>27.118644067796598</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="7"/>
+        <v>4.1079927836411807</v>
+      </c>
+      <c r="L188">
+        <v>10</v>
+      </c>
+      <c r="M188">
+        <v>2.8985507246376798</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="8"/>
+        <v>2.8532869513089945</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B189">
+        <v>25</v>
+      </c>
+      <c r="C189">
+        <v>21.7948717948717</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="6"/>
+        <v>1.7355777200420048</v>
+      </c>
+      <c r="G189">
+        <v>10</v>
+      </c>
+      <c r="H189">
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="7"/>
+        <v>4.8363021561400363E-2</v>
+      </c>
+      <c r="L189">
+        <v>60</v>
+      </c>
+      <c r="M189">
+        <v>45.783132530120398</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="8"/>
+        <v>3.8421609860206285</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B190">
+        <v>33</v>
+      </c>
+      <c r="C190">
+        <v>29.1666666666666</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="6"/>
+        <v>1.9848931076098157</v>
+      </c>
+      <c r="H190">
+        <v>80.263157894736807</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="7"/>
+        <v>6.3289110862809848</v>
+      </c>
+      <c r="L190">
+        <v>100</v>
+      </c>
+      <c r="M190">
+        <v>95.348837209302303</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="8"/>
+        <v>2.2558520102479833</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B191">
+        <v>90</v>
+      </c>
+      <c r="C191">
+        <v>50</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="6"/>
+        <v>5.3264294871223035</v>
+      </c>
+      <c r="G191">
+        <v>10</v>
+      </c>
+      <c r="H191">
+        <v>31.707317073170699</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="7"/>
+        <v>4.4483933471848474</v>
+      </c>
+      <c r="L191">
+        <v>40</v>
+      </c>
+      <c r="M191">
+        <v>12.345679012345601</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="8"/>
+        <v>4.7959394307179739</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B192">
+        <v>80</v>
+      </c>
+      <c r="C192">
+        <v>77.5</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="6"/>
+        <v>1.3923174227787602</v>
+      </c>
+      <c r="G192">
+        <v>25</v>
+      </c>
+      <c r="H192">
+        <v>24</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="7"/>
+        <v>0.16992500144231237</v>
+      </c>
+      <c r="L192">
+        <v>60</v>
+      </c>
+      <c r="M192">
+        <v>61.290322580645103</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="8"/>
+        <v>0.50113090991762643</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B193">
+        <v>15</v>
+      </c>
+      <c r="C193">
+        <v>10.1694915254237</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="6"/>
+        <v>2.3090330969905946</v>
+      </c>
+      <c r="G193">
+        <v>40</v>
+      </c>
+      <c r="H193">
+        <v>51.428571428571402</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="7"/>
+        <v>3.5302669799349005</v>
+      </c>
+      <c r="L193">
+        <v>5</v>
+      </c>
+      <c r="M193">
+        <v>2.1276595744680802</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="8"/>
+        <v>1.5836829484945862</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B194">
+        <v>40</v>
+      </c>
+      <c r="C194">
+        <v>58.823529411764703</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="6"/>
+        <v>4.2440139806092807</v>
+      </c>
+      <c r="G194">
+        <v>30</v>
+      </c>
+      <c r="H194">
+        <v>45</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="7"/>
+        <v>3.9188632372745946</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>4.0816326530612201</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="8"/>
+        <v>6.1247188826546617E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B195">
+        <v>50</v>
+      </c>
+      <c r="C195">
+        <v>51.612903225806399</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D201" si="9">LOG(ABS(B195-C195) + (1/8), 2)</f>
+        <v>0.79734774870217906</v>
+      </c>
+      <c r="G195">
+        <v>90</v>
+      </c>
+      <c r="H195">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="I195">
+        <f t="shared" ref="I195:I201" si="10">LOG(ABS(G195-H195) + (1/8), 2)</f>
+        <v>3.1796973804187001</v>
+      </c>
+      <c r="L195">
+        <v>10</v>
+      </c>
+      <c r="M195">
+        <v>6.1224489795918302</v>
+      </c>
+      <c r="N195">
+        <f t="shared" ref="N195:N201" si="11">LOG(ABS(L195-M195) + (1/8), 2)</f>
+        <v>2.0009197928528919</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B196">
+        <v>75</v>
+      </c>
+      <c r="C196">
+        <v>77.941176470588204</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="9"/>
+        <v>1.6164407321943095</v>
+      </c>
+      <c r="G196">
+        <v>25</v>
+      </c>
+      <c r="H196">
+        <v>32.6086956521739</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="10"/>
+        <v>2.9511579904694671</v>
+      </c>
+      <c r="L196">
+        <v>90</v>
+      </c>
+      <c r="M196">
+        <v>92</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="11"/>
+        <v>1.0874628412503395</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B197">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>13.953488372093</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="9"/>
+        <v>0.22837127382589797</v>
+      </c>
+      <c r="G197">
+        <v>30</v>
+      </c>
+      <c r="H197">
+        <v>29.761904761904699</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="10"/>
+        <v>-1.4615800852156235</v>
+      </c>
+      <c r="L197">
+        <v>20</v>
+      </c>
+      <c r="M197">
+        <v>4.2105263157894699</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="11"/>
+        <v>3.9922675405363401</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B198">
+        <v>80</v>
+      </c>
+      <c r="C198">
+        <v>80.882352941176407</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="9"/>
+        <v>1.0569241710096322E-2</v>
+      </c>
+      <c r="G198">
+        <v>100</v>
+      </c>
+      <c r="H198">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="10"/>
+        <v>2.8364379902311763</v>
+      </c>
+      <c r="L198">
+        <v>30</v>
+      </c>
+      <c r="M198">
+        <v>10.465116279069701</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="11"/>
+        <v>4.2971828837208248</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C199">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="9"/>
+        <v>6.0615962094333904</v>
+      </c>
+      <c r="G199">
+        <v>60</v>
+      </c>
+      <c r="H199">
+        <v>63.095238095238003</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="10"/>
+        <v>1.6871673610480133</v>
+      </c>
+      <c r="L199">
+        <v>75</v>
+      </c>
+      <c r="M199">
+        <v>57.7777777777777</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="11"/>
+        <v>4.1166327601656514</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B200">
+        <v>90</v>
+      </c>
+      <c r="C200">
+        <v>56.363636363636303</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="9"/>
+        <v>5.0773012711981202</v>
+      </c>
+      <c r="G200">
+        <v>10</v>
+      </c>
+      <c r="H200">
+        <v>8.2474226804123703</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="10"/>
+        <v>0.9088723198773857</v>
+      </c>
+      <c r="L200">
+        <v>60</v>
+      </c>
+      <c r="M200">
+        <v>40.404040404040401</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="11"/>
+        <v>4.3016578479546057</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B201">
+        <v>98</v>
+      </c>
+      <c r="C201">
+        <v>99</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="9"/>
+        <v>0.16992500144231237</v>
+      </c>
+      <c r="G201">
+        <v>20</v>
+      </c>
+      <c r="H201">
+        <v>20.408163265306101</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="10"/>
+        <v>-0.90735071203438444</v>
+      </c>
+      <c r="L201">
+        <v>100</v>
+      </c>
+      <c r="M201">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="11"/>
+        <v>2.7637656535099286</v>
       </c>
     </row>
   </sheetData>
